--- a/data/excel/Robinson Crusoe (version 2)/CHAPTER 11.xlsx
+++ b/data/excel/Robinson Crusoe (version 2)/CHAPTER 11.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataCutAudio\ExcelFile\Robinson Crusoe (version 2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataBackUpOnGitHub\CutAudio\CutAudio.github.io\data\excel\Robinson Crusoe (version 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t xml:space="preserve">  It would have made a Stoic smile to have seen me and my little family sit down to dinner.</t>
   </si>
@@ -233,9 +233,6 @@
     <t xml:space="preserve"> These thoughts took me up many hours, days, nay, I may say weeks and months: and one particular effect of my cogitations on this occasion I cannot omit.</t>
   </si>
   <si>
-    <t>One morning early, lying in my bed, and filled with thoughts about my danger from the appearances of savages, I found it discomposed me very much; upon which these words of the Scripture came into my thoughts, “Call upon Me in the day of trouble, and I will deliver thee, and thou shalt glorify Me.” Upon this, rising cheerfully out of my bed, my heart was not only comforted, but I was guided and encouraged to pray earnestly to God for deliverance: when I had done praying I took up my Bible, and opening it to read, the first words that presented to me were, “Wait on the Lord, and be of good cheer, and He shall strengthen thy heart; wait, I say, on the Lord.” It is impossible to express the comfort this gave me.</t>
-  </si>
-  <si>
     <t>In answer, I thankfully laid down the book, and was no more sad, at least on that occasion.</t>
   </si>
   <si>
@@ -306,6 +303,15 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>One morning early, lying in my bed, and filled with thoughts about my danger from the appearances of savages, I found it discomposed me very much; upon which these words of the Scripture came into my thoughts, “Call upon Me in the day of trouble, and I will deliver thee, and thou shalt glorify Me.”.</t>
+  </si>
+  <si>
+    <t>Upon this, rising cheerfully out of my bed, my heart was not only comforted, but I was guided and encouraged to pray earnestly to God for deliverance: when I had done praying I took up my Bible, and opening it to read, the first words that presented to me were, “Wait on the Lord, and be of good cheer, and He shall strengthen thy heart; wait, I say, on the Lord.”.</t>
+  </si>
+  <si>
+    <t>It is impossible to express the comfort this gave me.</t>
   </si>
 </sst>
 </file>
@@ -623,20 +629,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1196,7 +1202,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1204,7 +1210,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1212,7 +1218,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1220,7 +1226,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1228,7 +1234,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1236,7 +1242,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1244,7 +1250,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1252,7 +1258,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1260,7 +1266,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1268,7 +1274,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1276,7 +1282,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1284,7 +1290,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1292,7 +1298,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1300,7 +1306,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1308,7 +1314,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1316,7 +1322,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1324,7 +1330,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1332,7 +1338,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1340,7 +1346,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1348,7 +1354,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1356,7 +1362,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1364,7 +1370,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1372,7 +1378,23 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
